--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/10/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/10/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>5.62792</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>5627.92</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.66762</v>
+        <v>6.2424</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.62</v>
+        <v>6242.4</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.34104</v>
+        <v>6.39196</v>
       </c>
       <c r="C9" t="n">
-        <v>7341.04</v>
+        <v>6391.96</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>7.69254</v>
+        <v>6.40217</v>
       </c>
       <c r="C10" t="n">
-        <v>7692.54</v>
+        <v>6402.17</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>7.86825</v>
+        <v>6.39004</v>
       </c>
       <c r="C11" t="n">
-        <v>7868.25</v>
+        <v>6390.04</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>7.90439</v>
+        <v>6.36965</v>
       </c>
       <c r="C12" t="n">
-        <v>7904.39</v>
+        <v>6369.65</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>7.90193</v>
+        <v>6.343050000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>7901.93</v>
+        <v>6343.05</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>7.89355</v>
+        <v>6.31202</v>
       </c>
       <c r="C14" t="n">
-        <v>7893.55</v>
+        <v>6312.02</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>7.879270000000001</v>
+        <v>6.27794</v>
       </c>
       <c r="C15" t="n">
-        <v>7879.27</v>
+        <v>6277.94</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>7.86341</v>
+        <v>6.24368</v>
       </c>
       <c r="C16" t="n">
-        <v>7863.41</v>
+        <v>6243.68</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>7.84436</v>
+        <v>6.21037</v>
       </c>
       <c r="C17" t="n">
-        <v>7844.36</v>
+        <v>6210.37</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>7.82395</v>
+        <v>6.17825</v>
       </c>
       <c r="C18" t="n">
-        <v>7823.95</v>
+        <v>6178.25</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>7.80187</v>
+        <v>6.14748</v>
       </c>
       <c r="C19" t="n">
-        <v>7801.87</v>
+        <v>6147.48</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.557217</v>
       </c>
       <c r="B20" t="n">
-        <v>7.77862</v>
+        <v>6.11368</v>
       </c>
       <c r="C20" t="n">
-        <v>7778.62</v>
+        <v>6113.68</v>
       </c>
     </row>
     <row r="21">
@@ -664,21 +664,21 @@
         <v>0.5881420000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>7.7538</v>
+        <v>6.07676</v>
       </c>
       <c r="C21" t="n">
-        <v>7753.8</v>
+        <v>6076.76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>7.72732</v>
+        <v>6.037890000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>7727.32</v>
+        <v>6037.89</v>
       </c>
     </row>
     <row r="23">
@@ -686,32 +686,32 @@
         <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>7.69838</v>
+        <v>5.99664</v>
       </c>
       <c r="C23" t="n">
-        <v>7698.38</v>
+        <v>5996.64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815290000000001</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>7.667689999999999</v>
+        <v>5.950010000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>7667.69</v>
+        <v>5950.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>7.63528</v>
+        <v>5.90108</v>
       </c>
       <c r="C25" t="n">
-        <v>7635.28</v>
+        <v>5901.08</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>7.601859999999999</v>
+        <v>5.849760000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>7601.86</v>
+        <v>5849.76</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>7.567229999999999</v>
+        <v>5.79713</v>
       </c>
       <c r="C27" t="n">
-        <v>7567.23</v>
+        <v>5797.13</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>7.531140000000001</v>
+        <v>5.74291</v>
       </c>
       <c r="C28" t="n">
-        <v>7531.14</v>
+        <v>5742.91</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>7.49322</v>
+        <v>5.68768</v>
       </c>
       <c r="C29" t="n">
-        <v>7493.22</v>
+        <v>5687.68</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>7.45336</v>
+        <v>5.6306</v>
       </c>
       <c r="C30" t="n">
-        <v>7453.36</v>
+        <v>5630.6</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>7.41171</v>
+        <v>5.57059</v>
       </c>
       <c r="C31" t="n">
-        <v>7411.71</v>
+        <v>5570.59</v>
       </c>
     </row>
     <row r="32">
@@ -785,780 +785,780 @@
         <v>0.9309229999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>7.36728</v>
+        <v>5.50814</v>
       </c>
       <c r="C32" t="n">
-        <v>7367.28</v>
+        <v>5508.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9621</v>
+        <v>0.962017</v>
       </c>
       <c r="B33" t="n">
-        <v>7.3207</v>
+        <v>2.67622</v>
       </c>
       <c r="C33" t="n">
-        <v>7320.7</v>
+        <v>2676.22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993273</v>
+        <v>0.992886</v>
       </c>
       <c r="B34" t="n">
-        <v>7.27099</v>
+        <v>4.529430000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>7270.99</v>
+        <v>4529.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02406</v>
       </c>
       <c r="B35" t="n">
-        <v>7.21776</v>
+        <v>5.129930000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>7217.76</v>
+        <v>5129.93</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05507</v>
       </c>
       <c r="B36" t="n">
-        <v>7.16115</v>
+        <v>5.47576</v>
       </c>
       <c r="C36" t="n">
-        <v>7161.15</v>
+        <v>5475.76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.086</v>
       </c>
       <c r="B37" t="n">
-        <v>7.10094</v>
+        <v>5.25135</v>
       </c>
       <c r="C37" t="n">
-        <v>7100.94</v>
+        <v>5251.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11838</v>
+        <v>1.11708</v>
       </c>
       <c r="B38" t="n">
-        <v>7.0376</v>
+        <v>5.11788</v>
       </c>
       <c r="C38" t="n">
-        <v>7037.6</v>
+        <v>5117.88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1494</v>
+        <v>1.14812</v>
       </c>
       <c r="B39" t="n">
-        <v>6.970800000000001</v>
+        <v>5.06971</v>
       </c>
       <c r="C39" t="n">
-        <v>6970.8</v>
+        <v>5069.71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18042</v>
+        <v>1.17917</v>
       </c>
       <c r="B40" t="n">
-        <v>6.90045</v>
+        <v>5.030939999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>6900.45</v>
+        <v>5030.94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21139</v>
+        <v>1.21022</v>
       </c>
       <c r="B41" t="n">
-        <v>6.82637</v>
+        <v>4.96534</v>
       </c>
       <c r="C41" t="n">
-        <v>6826.37</v>
+        <v>4965.34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24217</v>
+        <v>1.2419</v>
       </c>
       <c r="B42" t="n">
-        <v>6.74886</v>
+        <v>4.909920000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>6748.86</v>
+        <v>4909.92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.2734</v>
+        <v>1.27362</v>
       </c>
       <c r="B43" t="n">
-        <v>6.66736</v>
+        <v>4.8148</v>
       </c>
       <c r="C43" t="n">
-        <v>6667.36</v>
+        <v>4814.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30424</v>
+        <v>1.30534</v>
       </c>
       <c r="B44" t="n">
-        <v>6.58304</v>
+        <v>4.700310000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>6583.04</v>
+        <v>4700.31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33536</v>
+        <v>1.33706</v>
       </c>
       <c r="B45" t="n">
-        <v>6.49484</v>
+        <v>4.6113</v>
       </c>
       <c r="C45" t="n">
-        <v>6494.84</v>
+        <v>4611.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36629</v>
+        <v>1.36878</v>
       </c>
       <c r="B46" t="n">
-        <v>6.40406</v>
+        <v>4.51434</v>
       </c>
       <c r="C46" t="n">
-        <v>6404.06</v>
+        <v>4514.34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39738</v>
+        <v>1.4005</v>
       </c>
       <c r="B47" t="n">
-        <v>6.31024</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>6310.24</v>
+        <v>4437.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42831</v>
+        <v>1.43222</v>
       </c>
       <c r="B48" t="n">
-        <v>6.21412</v>
+        <v>4.34392</v>
       </c>
       <c r="C48" t="n">
-        <v>6214.12</v>
+        <v>4343.92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45932</v>
+        <v>1.46394</v>
       </c>
       <c r="B49" t="n">
-        <v>6.11571</v>
+        <v>4.24465</v>
       </c>
       <c r="C49" t="n">
-        <v>6115.71</v>
+        <v>4244.65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49033</v>
+        <v>1.495</v>
       </c>
       <c r="B50" t="n">
-        <v>6.015470000000001</v>
+        <v>4.18054</v>
       </c>
       <c r="C50" t="n">
-        <v>6015.47</v>
+        <v>4180.54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52137</v>
+        <v>1.52584</v>
       </c>
       <c r="B51" t="n">
-        <v>5.91368</v>
+        <v>4.12762</v>
       </c>
       <c r="C51" t="n">
-        <v>5913.68</v>
+        <v>4127.62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55233</v>
+        <v>1.55645</v>
       </c>
       <c r="B52" t="n">
-        <v>5.81101</v>
+        <v>4.06812</v>
       </c>
       <c r="C52" t="n">
-        <v>5811.01</v>
+        <v>4068.12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58335</v>
+        <v>1.58693</v>
       </c>
       <c r="B53" t="n">
-        <v>5.70706</v>
+        <v>4.02691</v>
       </c>
       <c r="C53" t="n">
-        <v>5707.06</v>
+        <v>4026.91</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61426</v>
+        <v>1.61741</v>
       </c>
       <c r="B54" t="n">
-        <v>5.60365</v>
+        <v>3.99054</v>
       </c>
       <c r="C54" t="n">
-        <v>5603.65</v>
+        <v>3990.54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6454</v>
+        <v>1.64789</v>
       </c>
       <c r="B55" t="n">
-        <v>5.49967</v>
+        <v>3.90807</v>
       </c>
       <c r="C55" t="n">
-        <v>5499.67</v>
+        <v>3908.07</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67609</v>
+        <v>1.6781</v>
       </c>
       <c r="B56" t="n">
-        <v>5.398149999999999</v>
+        <v>3.85688</v>
       </c>
       <c r="C56" t="n">
-        <v>5398.15</v>
+        <v>3856.88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70744</v>
+        <v>1.70894</v>
       </c>
       <c r="B57" t="n">
-        <v>5.295380000000001</v>
+        <v>3.7816</v>
       </c>
       <c r="C57" t="n">
-        <v>5295.38</v>
+        <v>3781.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73816</v>
+        <v>1.74018</v>
       </c>
       <c r="B58" t="n">
-        <v>5.19609</v>
+        <v>3.74378</v>
       </c>
       <c r="C58" t="n">
-        <v>5196.09</v>
+        <v>3743.78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76937</v>
+        <v>1.77106</v>
       </c>
       <c r="B59" t="n">
-        <v>5.0965</v>
+        <v>3.68327</v>
       </c>
       <c r="C59" t="n">
-        <v>5096.5</v>
+        <v>3683.27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80038</v>
+        <v>1.80139</v>
       </c>
       <c r="B60" t="n">
-        <v>4.999359999999999</v>
+        <v>3.61659</v>
       </c>
       <c r="C60" t="n">
-        <v>4999.36</v>
+        <v>3616.59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83107</v>
+        <v>1.83229</v>
       </c>
       <c r="B61" t="n">
-        <v>4.90522</v>
+        <v>3.55393</v>
       </c>
       <c r="C61" t="n">
-        <v>4905.22</v>
+        <v>3553.93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86247</v>
+        <v>1.86358</v>
       </c>
       <c r="B62" t="n">
-        <v>4.81119</v>
+        <v>3.521</v>
       </c>
       <c r="C62" t="n">
-        <v>4811.19</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89328</v>
+        <v>1.89436</v>
       </c>
       <c r="B63" t="n">
-        <v>4.72142</v>
+        <v>3.45579</v>
       </c>
       <c r="C63" t="n">
-        <v>4721.42</v>
+        <v>3455.79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92428</v>
+        <v>1.92523</v>
       </c>
       <c r="B64" t="n">
-        <v>4.63405</v>
+        <v>3.4184</v>
       </c>
       <c r="C64" t="n">
-        <v>4634.05</v>
+        <v>3418.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95557</v>
+        <v>1.9561</v>
       </c>
       <c r="B65" t="n">
-        <v>4.549189999999999</v>
+        <v>3.37549</v>
       </c>
       <c r="C65" t="n">
-        <v>4549.19</v>
+        <v>3375.49</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98621</v>
+        <v>1.98697</v>
       </c>
       <c r="B66" t="n">
-        <v>4.46923</v>
+        <v>3.34302</v>
       </c>
       <c r="C66" t="n">
-        <v>4469.23</v>
+        <v>3343.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01719</v>
+        <v>2.01737</v>
       </c>
       <c r="B67" t="n">
-        <v>4.39169</v>
+        <v>3.31585</v>
       </c>
       <c r="C67" t="n">
-        <v>4391.69</v>
+        <v>3315.85</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04882</v>
+        <v>2.04915</v>
       </c>
       <c r="B68" t="n">
-        <v>4.31671</v>
+        <v>3.26929</v>
       </c>
       <c r="C68" t="n">
-        <v>4316.71</v>
+        <v>3269.29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07937</v>
+        <v>2.08057</v>
       </c>
       <c r="B69" t="n">
-        <v>4.24628</v>
+        <v>3.2308</v>
       </c>
       <c r="C69" t="n">
-        <v>4246.28</v>
+        <v>3230.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11008</v>
+        <v>2.11098</v>
       </c>
       <c r="B70" t="n">
-        <v>4.17839</v>
+        <v>3.20637</v>
       </c>
       <c r="C70" t="n">
-        <v>4178.39</v>
+        <v>3206.37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14208</v>
+        <v>2.14138</v>
       </c>
       <c r="B71" t="n">
-        <v>4.11166</v>
+        <v>3.19238</v>
       </c>
       <c r="C71" t="n">
-        <v>4111.66</v>
+        <v>3192.38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17261</v>
+        <v>2.17358</v>
       </c>
       <c r="B72" t="n">
-        <v>4.04873</v>
+        <v>3.14676</v>
       </c>
       <c r="C72" t="n">
-        <v>4048.73</v>
+        <v>3146.76</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20301</v>
+        <v>2.20439</v>
       </c>
       <c r="B73" t="n">
-        <v>3.98962</v>
+        <v>3.12454</v>
       </c>
       <c r="C73" t="n">
-        <v>3989.62</v>
+        <v>3124.54</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23482</v>
+        <v>2.23509</v>
       </c>
       <c r="B74" t="n">
-        <v>3.93141</v>
+        <v>3.10197</v>
       </c>
       <c r="C74" t="n">
-        <v>3931.41</v>
+        <v>3101.97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26577</v>
+        <v>2.2666</v>
       </c>
       <c r="B75" t="n">
-        <v>3.87515</v>
+        <v>3.08711</v>
       </c>
       <c r="C75" t="n">
-        <v>3875.15</v>
+        <v>3087.11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2966</v>
+        <v>2.2975</v>
       </c>
       <c r="B76" t="n">
-        <v>3.82211</v>
+        <v>3.08555</v>
       </c>
       <c r="C76" t="n">
-        <v>3822.11</v>
+        <v>3085.55</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32783</v>
+        <v>2.32761</v>
       </c>
       <c r="B77" t="n">
-        <v>3.77252</v>
+        <v>3.08425</v>
       </c>
       <c r="C77" t="n">
-        <v>3772.52</v>
+        <v>3084.25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35911</v>
+        <v>2.35759</v>
       </c>
       <c r="B78" t="n">
-        <v>3.74118</v>
+        <v>3.07448</v>
       </c>
       <c r="C78" t="n">
-        <v>3741.18</v>
+        <v>3074.48</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38898</v>
+        <v>2.38966</v>
       </c>
       <c r="B79" t="n">
-        <v>3.73435</v>
+        <v>3.06716</v>
       </c>
       <c r="C79" t="n">
-        <v>3734.35</v>
+        <v>3067.16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42127</v>
+        <v>2.42224</v>
       </c>
       <c r="B80" t="n">
-        <v>3.72345</v>
+        <v>3.04867</v>
       </c>
       <c r="C80" t="n">
-        <v>3723.45</v>
+        <v>3048.67</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45148</v>
+        <v>2.45175</v>
       </c>
       <c r="B81" t="n">
-        <v>3.71133</v>
+        <v>3.04658</v>
       </c>
       <c r="C81" t="n">
-        <v>3711.33</v>
+        <v>3046.58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47965</v>
+        <v>2.48081</v>
       </c>
       <c r="B82" t="n">
-        <v>3.69995</v>
+        <v>3.01483</v>
       </c>
       <c r="C82" t="n">
-        <v>3699.95</v>
+        <v>3014.83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51159</v>
+        <v>2.51272</v>
       </c>
       <c r="B83" t="n">
-        <v>3.68546</v>
+        <v>3.02086</v>
       </c>
       <c r="C83" t="n">
-        <v>3685.46</v>
+        <v>3020.86</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54487</v>
+        <v>2.54584</v>
       </c>
       <c r="B84" t="n">
-        <v>3.66569</v>
+        <v>2.99613</v>
       </c>
       <c r="C84" t="n">
-        <v>3665.69</v>
+        <v>2996.13</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57815</v>
+        <v>2.57912</v>
       </c>
       <c r="B85" t="n">
-        <v>3.65534</v>
+        <v>2.97405</v>
       </c>
       <c r="C85" t="n">
-        <v>3655.34</v>
+        <v>2974.05</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61143</v>
+        <v>2.6124</v>
       </c>
       <c r="B86" t="n">
-        <v>3.63469</v>
+        <v>2.96973</v>
       </c>
       <c r="C86" t="n">
-        <v>3634.69</v>
+        <v>2969.73</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64441</v>
+        <v>2.64568</v>
       </c>
       <c r="B87" t="n">
-        <v>3.61764</v>
+        <v>2.97176</v>
       </c>
       <c r="C87" t="n">
-        <v>3617.64</v>
+        <v>2971.76</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67513</v>
+        <v>2.67795</v>
       </c>
       <c r="B88" t="n">
-        <v>3.59486</v>
+        <v>2.94327</v>
       </c>
       <c r="C88" t="n">
-        <v>3594.86</v>
+        <v>2943.27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70585</v>
+        <v>2.70895</v>
       </c>
       <c r="B89" t="n">
-        <v>3.56941</v>
+        <v>2.92228</v>
       </c>
       <c r="C89" t="n">
-        <v>3569.41</v>
+        <v>2922.28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73657</v>
+        <v>2.7397</v>
       </c>
       <c r="B90" t="n">
-        <v>3.55503</v>
+        <v>2.90486</v>
       </c>
       <c r="C90" t="n">
-        <v>3555.03</v>
+        <v>2904.86</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76729</v>
+        <v>2.77042</v>
       </c>
       <c r="B91" t="n">
-        <v>3.53884</v>
+        <v>2.89221</v>
       </c>
       <c r="C91" t="n">
-        <v>3538.84</v>
+        <v>2892.21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79801</v>
+        <v>2.80114</v>
       </c>
       <c r="B92" t="n">
-        <v>3.52239</v>
+        <v>2.88876</v>
       </c>
       <c r="C92" t="n">
-        <v>3522.39</v>
+        <v>2888.76</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82873</v>
+        <v>2.83186</v>
       </c>
       <c r="B93" t="n">
-        <v>3.49921</v>
+        <v>2.88429</v>
       </c>
       <c r="C93" t="n">
-        <v>3499.21</v>
+        <v>2884.29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85935</v>
+        <v>2.86258</v>
       </c>
       <c r="B94" t="n">
-        <v>3.48307</v>
+        <v>2.87471</v>
       </c>
       <c r="C94" t="n">
-        <v>3483.07</v>
+        <v>2874.71</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88751</v>
+        <v>2.8933</v>
       </c>
       <c r="B95" t="n">
-        <v>3.46636</v>
+        <v>2.84547</v>
       </c>
       <c r="C95" t="n">
-        <v>3466.36</v>
+        <v>2845.47</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91567</v>
+        <v>2.92371</v>
       </c>
       <c r="B96" t="n">
-        <v>3.4477</v>
+        <v>2.82207</v>
       </c>
       <c r="C96" t="n">
-        <v>3447.7</v>
+        <v>2822.07</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94383</v>
+        <v>2.95243</v>
       </c>
       <c r="B97" t="n">
-        <v>3.42633</v>
+        <v>2.82603</v>
       </c>
       <c r="C97" t="n">
-        <v>3426.33</v>
+        <v>2826.03</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97199</v>
+        <v>2.98067</v>
       </c>
       <c r="B98" t="n">
-        <v>3.41191</v>
+        <v>2.82069</v>
       </c>
       <c r="C98" t="n">
-        <v>3411.91</v>
+        <v>2820.69</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00015</v>
+        <v>3.00884</v>
       </c>
       <c r="B99" t="n">
-        <v>3.38693</v>
+        <v>2.78832</v>
       </c>
       <c r="C99" t="n">
-        <v>3386.93</v>
+        <v>2788.32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03451</v>
+        <v>3.037</v>
       </c>
       <c r="B100" t="n">
-        <v>3.37615</v>
+        <v>2.79164</v>
       </c>
       <c r="C100" t="n">
-        <v>3376.15</v>
+        <v>2791.64</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.0697</v>
+        <v>3.06516</v>
       </c>
       <c r="B101" t="n">
-        <v>3.33797</v>
+        <v>2.76923</v>
       </c>
       <c r="C101" t="n">
-        <v>3337.97</v>
+        <v>2769.23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.1049</v>
+        <v>3.09332</v>
       </c>
       <c r="B102" t="n">
-        <v>3.32512</v>
+        <v>2.76166</v>
       </c>
       <c r="C102" t="n">
-        <v>3325.12</v>
+        <v>2761.66</v>
       </c>
     </row>
   </sheetData>
